--- a/src/excel-data/hokkaido.xlsx
+++ b/src/excel-data/hokkaido.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13601559-EEF8-7A4A-9E86-1BF30AE37084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F1C45-A52D-C34A-968D-6BDEC9542EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28940" yWindow="3000" windowWidth="28460" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>现金购票; 购票机购票</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>周六、周日、节假日</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,10 +553,6 @@
   </si>
   <si>
     <t>东日本 + 南北海道的6日周游券，连接东京、仙台、函馆，覆盖东北和北海道南部地区。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>跨地区旅行; 现金购票；电子购票；购票机购票</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -706,6 +698,12 @@
   <si>
     <t>函馆市电・函馆巴士共通2日券，适合函馆市内全域2日游。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 车站购票</t>
+  </si>
+  <si>
+    <t>跨地区旅行; 现金购票；电子购票；车站购票</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1148,7 @@
   <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1273,7 +1271,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -1338,10 +1336,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>830</v>
@@ -1362,7 +1360,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -1412,10 +1410,10 @@
         <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2">
         <v>520</v>
@@ -1424,13 +1422,13 @@
         <v>260</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>84</v>
@@ -1467,10 +1465,10 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>570</v>
@@ -1485,7 +1483,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -1532,10 +1530,10 @@
         <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2">
         <v>460</v>
@@ -1547,7 +1545,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -1556,7 +1554,7 @@
         <v>24</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>85</v>
@@ -1594,10 +1592,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2">
         <v>840</v>
@@ -1612,7 +1610,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2">
         <v>24</v>
@@ -1662,10 +1660,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
@@ -1680,7 +1678,7 @@
         <v>300</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -1730,10 +1728,10 @@
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2">
         <v>900</v>
@@ -1748,7 +1746,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O9" s="2">
         <v>24</v>
@@ -1798,10 +1796,10 @@
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="2">
         <v>1400</v>
@@ -1813,7 +1811,7 @@
         <v>700</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -1863,10 +1861,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2">
         <v>2400</v>
@@ -1878,7 +1876,7 @@
         <v>1200</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O11" s="2">
         <v>2</v>
@@ -1925,10 +1923,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="6">
         <v>1100</v>
@@ -1943,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O12" s="2">
         <v>1</v>
@@ -1990,10 +1988,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2">
         <v>35370</v>
@@ -2008,7 +2006,7 @@
         <v>24</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2">
         <v>6</v>
@@ -2032,7 +2030,7 @@
         <v>50</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>98</v>
@@ -2058,7 +2056,7 @@
         <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>52</v>
@@ -2126,7 +2124,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>55</v>
@@ -2194,7 +2192,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>58</v>
@@ -2280,7 +2278,7 @@
         <v>5500</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O17" s="2">
         <v>4</v>
@@ -2348,7 +2346,7 @@
         <v>5000</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O18" s="2">
         <v>4</v>
@@ -2363,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>67</v>

--- a/src/excel-data/hokkaido.xlsx
+++ b/src/excel-data/hokkaido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F1C45-A52D-C34A-968D-6BDEC9542EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C27E68-789A-BF45-837D-7A5D8B01824B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28940" yWindow="3000" windowWidth="28460" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="169">
   <si>
     <t>sortOrder</t>
   </si>
@@ -425,17 +425,6 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>bu ke</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※使用不可：4月27日～5月6日、8月10日～19日、12月28日～1月6日
-※坐快车需加钱</t>
-    <rPh sb="1" eb="2">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu k</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -705,12 +694,78 @@
   <si>
     <t>跨地区旅行; 现金购票；电子购票；车站购票</t>
   </si>
+  <si>
+    <t>日文名称</t>
+  </si>
+  <si>
+    <t>北海道鉄道パス（7日間）</t>
+  </si>
+  <si>
+    <t>札幌市営地下鉄全線1日乗車券</t>
+  </si>
+  <si>
+    <t>札幌市営地下鉄土日祝1日乗車券</t>
+  </si>
+  <si>
+    <t>札幌市電1日乗車券</t>
+  </si>
+  <si>
+    <t>どさんこ1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>札幌市電24時間フリーきっぷ</t>
+  </si>
+  <si>
+    <t>函館市電1日乗車券</t>
+  </si>
+  <si>
+    <t>函館市電24時間フリーきっぷ</t>
+  </si>
+  <si>
+    <t>函館市電・函館バス共通1日乗車券</t>
+  </si>
+  <si>
+    <t>函館市電・函館バス共通2日乗車券</t>
+  </si>
+  <si>
+    <t>いさり火1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>JR東日本・南北海道パス（6日間）</t>
+  </si>
+  <si>
+    <t>北海道鉄道パス（5日間）</t>
+  </si>
+  <si>
+    <t>北海道鉄道パス（10日間）</t>
+  </si>
+  <si>
+    <t>さっぽろ・ふらのエリアきっぷ</t>
+  </si>
+  <si>
+    <t>さっぽろ・登別エリアきっぷ</t>
+  </si>
+  <si>
+    <t>※使用不可：4月27日～5月6日、8月10日～19日、12月28日～1月6日
+※坐普通电车以外需另外加钱</t>
+    <rPh sb="1" eb="2">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu k</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24h</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -766,6 +821,18 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -794,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -805,6 +872,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1145,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1177,7 +1246,7 @@
     <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,8 +1331,11 @@
       <c r="AB1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" ht="48">
+      <c r="AE1" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="2" customFormat="1" ht="48">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1271,7 +1343,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -1325,10 +1397,13 @@
         <v>24</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="2" customFormat="1">
+        <v>167</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1336,10 +1411,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>830</v>
@@ -1360,7 +1435,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -1401,8 +1476,11 @@
       <c r="AA3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" s="2" customFormat="1">
+      <c r="AE3" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1410,10 +1488,10 @@
         <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E4" s="2">
         <v>520</v>
@@ -1422,13 +1500,13 @@
         <v>260</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>84</v>
@@ -1454,10 +1532,12 @@
       <c r="AA4" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AE4" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-    </row>
-    <row r="5" spans="1:33" s="2" customFormat="1">
+    </row>
+    <row r="5" spans="1:32" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1465,10 +1545,10 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>570</v>
@@ -1483,7 +1563,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -1521,8 +1601,11 @@
       <c r="AA5" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" s="2" customFormat="1">
+      <c r="AE5" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="2" customFormat="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1530,10 +1613,10 @@
         <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E6" s="2">
         <v>460</v>
@@ -1545,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -1554,7 +1637,7 @@
         <v>24</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>85</v>
@@ -1583,8 +1666,11 @@
       <c r="AA6" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" s="2" customFormat="1">
+      <c r="AE6" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1592,10 +1678,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2">
         <v>840</v>
@@ -1610,10 +1696,10 @@
         <v>24</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="2">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>24</v>
@@ -1651,8 +1737,11 @@
       <c r="AA7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" s="2" customFormat="1">
+      <c r="AE7" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1660,10 +1749,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
@@ -1678,7 +1767,7 @@
         <v>300</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -1719,8 +1808,11 @@
       <c r="AA8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" s="2" customFormat="1">
+      <c r="AE8" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1728,10 +1820,10 @@
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2">
         <v>900</v>
@@ -1746,10 +1838,10 @@
         <v>24</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O9" s="2">
-        <v>24</v>
+        <v>119</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>24</v>
@@ -1787,8 +1879,11 @@
       <c r="AA9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="2" customFormat="1">
+      <c r="AE9" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1796,10 +1891,10 @@
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F10" s="2">
         <v>1400</v>
@@ -1811,7 +1906,7 @@
         <v>700</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -1852,8 +1947,11 @@
       <c r="AA10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="2" customFormat="1">
+      <c r="AE10" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1861,10 +1959,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F11" s="2">
         <v>2400</v>
@@ -1876,7 +1974,7 @@
         <v>1200</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O11" s="2">
         <v>2</v>
@@ -1914,8 +2012,11 @@
       <c r="AA11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="2" customFormat="1">
+      <c r="AE11" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1923,10 +2024,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E12" s="6">
         <v>1100</v>
@@ -1941,7 +2042,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O12" s="2">
         <v>1</v>
@@ -1979,8 +2080,11 @@
       <c r="AA12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" s="2" customFormat="1">
+      <c r="AE12" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1988,10 +2092,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2">
         <v>35370</v>
@@ -2006,7 +2110,7 @@
         <v>24</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O13" s="2">
         <v>6</v>
@@ -2030,7 +2134,7 @@
         <v>50</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>98</v>
@@ -2047,8 +2151,11 @@
       <c r="AA13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" s="2" customFormat="1">
+      <c r="AE13" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2056,7 +2163,7 @@
         <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>52</v>
@@ -2115,8 +2222,11 @@
       <c r="AA14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" s="2" customFormat="1">
+      <c r="AE14" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="2" customFormat="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2124,7 +2234,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>55</v>
@@ -2183,8 +2293,11 @@
       <c r="AA15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" s="2" customFormat="1">
+      <c r="AE15" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2192,7 +2305,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>58</v>
@@ -2251,8 +2364,11 @@
       <c r="AA16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="2" customFormat="1">
+      <c r="AE16" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="2" customFormat="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2278,7 +2394,7 @@
         <v>5500</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O17" s="2">
         <v>4</v>
@@ -2319,8 +2435,11 @@
       <c r="AA17" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="2" customFormat="1">
+      <c r="AE17" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="2" customFormat="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2346,7 +2465,7 @@
         <v>5000</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O18" s="2">
         <v>4</v>
@@ -2361,7 +2480,7 @@
         <v>25</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>67</v>
@@ -2387,28 +2506,31 @@
       <c r="AA18" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AE18" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:31">
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:31">
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:31">
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:31">
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
